--- a/CR - Cost Report/BOM/Couverture_Supporting_material_file.xlsx
+++ b/CR - Cost Report/BOM/Couverture_Supporting_material_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cost report : Supporting material file</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>All the part and assembly number are connected with a hyperlink to their sheet with their pictures and drawings.</t>
+  </si>
+  <si>
+    <t>The specified part number doesn't always correspond to the drawing number on pictures in the cartouche.</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:B20"/>
+  <dimension ref="A8:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +504,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/CR - Cost Report/BOM/Couverture_Supporting_material_file.xlsx
+++ b/CR - Cost Report/BOM/Couverture_Supporting_material_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cost report : Supporting material file</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>The specified part number doesn't always correspond to the drawing number on pictures in the cartouche.</t>
+  </si>
+  <si>
+    <t>_ ARB : Anti-Roll Bar</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:B22"/>
+  <dimension ref="A8:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,13 +502,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CR - Cost Report/BOM/Couverture_Supporting_material_file.xlsx
+++ b/CR - Cost Report/BOM/Couverture_Supporting_material_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cost report : Supporting material file</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>_ ARB : Anti-Roll Bar</t>
+  </si>
+  <si>
+    <t>_ brack : bracket</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:B23"/>
+  <dimension ref="A8:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,13 +510,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
